--- a/Data Files/TestData/PermisosTestDataSportBook.xlsx
+++ b/Data Files/TestData/PermisosTestDataSportBook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
@@ -209,6 +209,57 @@
   </si>
   <si>
     <t>11:51:07.361</t>
+  </si>
+  <si>
+    <t>10/10/2019</t>
+  </si>
+  <si>
+    <t>13:51:47.667</t>
+  </si>
+  <si>
+    <t>Windows Server 2016</t>
+  </si>
+  <si>
+    <t>Firefox 69.0.2</t>
+  </si>
+  <si>
+    <t>http://pregame-support.bminc.eu</t>
+  </si>
+  <si>
+    <t>4fku01</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>13:51:47.836</t>
+  </si>
+  <si>
+    <t>13:54:18.322</t>
+  </si>
+  <si>
+    <t>http://10.0.74.5/index/home</t>
+  </si>
+  <si>
+    <t>13:54:18.520</t>
+  </si>
+  <si>
+    <t>14:09:57.979</t>
+  </si>
+  <si>
+    <t>14:09:58.145</t>
+  </si>
+  <si>
+    <t>14:12:06.142</t>
+  </si>
+  <si>
+    <t>14:12:06.326</t>
+  </si>
+  <si>
+    <t>14:13:10.969</t>
+  </si>
+  <si>
+    <t>14:13:11.171</t>
   </si>
 </sst>
 </file>
@@ -473,32 +524,32 @@
       <c r="A2" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>

--- a/Data Files/TestData/PermisosTestDataSportBook.xlsx
+++ b/Data Files/TestData/PermisosTestDataSportBook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
@@ -260,6 +260,33 @@
   </si>
   <si>
     <t>14:13:11.171</t>
+  </si>
+  <si>
+    <t>24/10/2019</t>
+  </si>
+  <si>
+    <t>13:21:45.070</t>
+  </si>
+  <si>
+    <t>Validación de permiso fallida causado por excepción inesperada</t>
+  </si>
+  <si>
+    <t>13:22:48.449</t>
+  </si>
+  <si>
+    <t>13:23:43.749</t>
+  </si>
+  <si>
+    <t>13:24:24.026</t>
+  </si>
+  <si>
+    <t>13:25:41.884</t>
+  </si>
+  <si>
+    <t>Firefox 69.0.3</t>
+  </si>
+  <si>
+    <t>13:26:16.727</t>
   </si>
 </sst>
 </file>
@@ -534,22 +561,22 @@
         <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
         <v>30</v>

--- a/Data Files/TestData/PermisosTestDataSportBook.xlsx
+++ b/Data Files/TestData/PermisosTestDataSportBook.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="93">
   <si>
     <t xml:space="preserve">TestCaseId</t>
   </si>
@@ -287,6 +287,18 @@
   </si>
   <si>
     <t>13:26:16.727</t>
+  </si>
+  <si>
+    <t>15:45:22.137</t>
+  </si>
+  <si>
+    <t>15:45:57.673</t>
+  </si>
+  <si>
+    <t>15:46:53.216</t>
+  </si>
+  <si>
+    <t>15:47:28.370</t>
   </si>
 </sst>
 </file>
@@ -564,13 +576,13 @@
         <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G2" t="s">
         <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="I2" t="s">
         <v>65</v>
@@ -585,10 +597,10 @@
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
